--- a/po_analysis_by_asin/B0BSB6MZ2L_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB6MZ2L_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,87 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>324</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>48</v>
@@ -540,169 +540,441 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>192</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45397</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45404</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45411</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45418</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>240</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45425</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45432</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45439</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>408</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45460</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45481</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45488</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>456</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45523</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>396</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45537</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>36</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45572</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>132</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45586</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45593</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B33" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B67" t="n">
         <v>24</v>
       </c>
     </row>
@@ -717,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,81 +1011,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>216</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>258</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>420</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>504</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>504</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>552</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSB6MZ2L_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB6MZ2L_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1006,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1183,6 +1184,1083 @@
       </c>
       <c r="B23" t="n">
         <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-62.5817767187154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>206.6564482053743</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>66</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-61.51296061054284</v>
+      </c>
+      <c r="D3" t="n">
+        <v>193.8596457573256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>67</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-68.92147015509397</v>
+      </c>
+      <c r="D4" t="n">
+        <v>197.6974743370473</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-60.14984545463125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>192.089848385362</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>69</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-77.99123027054029</v>
+      </c>
+      <c r="D6" t="n">
+        <v>188.4604455468331</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>70</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-67.50259711274333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>191.9130157968731</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>71</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-57.33786344199211</v>
+      </c>
+      <c r="D8" t="n">
+        <v>202.3923485696238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-54.39284248652898</v>
+      </c>
+      <c r="D9" t="n">
+        <v>202.3910036591091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>74</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-64.65652752323076</v>
+      </c>
+      <c r="D10" t="n">
+        <v>197.6638626324447</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>77</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-54.59105375392785</v>
+      </c>
+      <c r="D11" t="n">
+        <v>210.073934578274</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>83</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-40.32358154868776</v>
+      </c>
+      <c r="D12" t="n">
+        <v>215.5470470089504</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>84</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-52.24160808383002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>208.9631609375414</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>85</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-48.96925758907283</v>
+      </c>
+      <c r="D14" t="n">
+        <v>213.729479888269</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-56.97617773807804</v>
+      </c>
+      <c r="D15" t="n">
+        <v>216.3396249962008</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>87</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-41.19952644774843</v>
+      </c>
+      <c r="D16" t="n">
+        <v>216.9264697787791</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>91</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-37.72308230005661</v>
+      </c>
+      <c r="D17" t="n">
+        <v>215.7441311545828</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>92</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-47.51318435767615</v>
+      </c>
+      <c r="D18" t="n">
+        <v>230.9679779078472</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>93</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-40.13887235000918</v>
+      </c>
+      <c r="D19" t="n">
+        <v>232.8451752806505</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>94</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-40.4039010060068</v>
+      </c>
+      <c r="D20" t="n">
+        <v>220.9533161616009</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>95</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-32.63243398782489</v>
+      </c>
+      <c r="D21" t="n">
+        <v>224.6264695598984</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>96</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-36.0707487031124</v>
+      </c>
+      <c r="D22" t="n">
+        <v>222.5690154624815</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>97</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-22.44346996032181</v>
+      </c>
+      <c r="D23" t="n">
+        <v>225.2607723715232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>98</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-19.24924286980228</v>
+      </c>
+      <c r="D24" t="n">
+        <v>220.3669700017284</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>99</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-23.9713111144198</v>
+      </c>
+      <c r="D25" t="n">
+        <v>227.7050102010936</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>101</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-30.19750222649008</v>
+      </c>
+      <c r="D26" t="n">
+        <v>224.1340876276751</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>102</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-33.02058657327188</v>
+      </c>
+      <c r="D27" t="n">
+        <v>228.4342851569741</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-23.37756932229329</v>
+      </c>
+      <c r="D28" t="n">
+        <v>238.420362940408</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>104</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-26.65895609714185</v>
+      </c>
+      <c r="D29" t="n">
+        <v>226.8826269770099</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>105</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-21.75068446079355</v>
+      </c>
+      <c r="D30" t="n">
+        <v>244.2779173843764</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>108</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-24.69336863306893</v>
+      </c>
+      <c r="D31" t="n">
+        <v>239.4898994211561</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>109</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-26.40385448460479</v>
+      </c>
+      <c r="D32" t="n">
+        <v>234.3654733103801</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>110</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-21.33557879771219</v>
+      </c>
+      <c r="D33" t="n">
+        <v>236.0188142917754</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>111</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-19.14321081835924</v>
+      </c>
+      <c r="D34" t="n">
+        <v>253.4857303210721</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>112</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-15.81905233892271</v>
+      </c>
+      <c r="D35" t="n">
+        <v>251.4335631236878</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>117</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-18.34890084317227</v>
+      </c>
+      <c r="D36" t="n">
+        <v>246.6517600173265</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>118</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.616699857979824</v>
+      </c>
+      <c r="D37" t="n">
+        <v>242.5153703804851</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>119</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-15.80305276675174</v>
+      </c>
+      <c r="D38" t="n">
+        <v>253.8019887590873</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>120</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-13.4468107510624</v>
+      </c>
+      <c r="D39" t="n">
+        <v>259.0424712298944</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>121</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-14.65908228496219</v>
+      </c>
+      <c r="D40" t="n">
+        <v>253.1509140886062</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>122</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-17.20925053349944</v>
+      </c>
+      <c r="D41" t="n">
+        <v>250.6443547619062</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>124</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-14.90125631143898</v>
+      </c>
+      <c r="D42" t="n">
+        <v>251.1831797684817</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>125</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-3.443295766636244</v>
+      </c>
+      <c r="D43" t="n">
+        <v>258.2258794738868</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>127</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-3.707204883791736</v>
+      </c>
+      <c r="D44" t="n">
+        <v>260.2610301324789</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>128</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.339416512816808</v>
+      </c>
+      <c r="D45" t="n">
+        <v>255.2739192339698</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>129</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7527636106177328</v>
+      </c>
+      <c r="D46" t="n">
+        <v>259.1985820254783</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>130</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-7.57734573771845</v>
+      </c>
+      <c r="D47" t="n">
+        <v>251.4600586152889</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>131</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.163476627552382</v>
+      </c>
+      <c r="D48" t="n">
+        <v>262.7333779632535</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>132</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16.97018830979288</v>
+      </c>
+      <c r="D49" t="n">
+        <v>264.617671982717</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>133</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.944800912658563</v>
+      </c>
+      <c r="D50" t="n">
+        <v>259.0597491265291</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>134</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.09596938574371</v>
+      </c>
+      <c r="D51" t="n">
+        <v>258.7392067987943</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>135</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.2229395088558367</v>
+      </c>
+      <c r="D52" t="n">
+        <v>258.6068289497743</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>136</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.875506355958767</v>
+      </c>
+      <c r="D53" t="n">
+        <v>274.7631302700093</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>137</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10.96970428460158</v>
+      </c>
+      <c r="D54" t="n">
+        <v>281.5953167231898</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>139</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.21558082468027</v>
+      </c>
+      <c r="D55" t="n">
+        <v>275.2117814632168</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>140</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.330062896631408</v>
+      </c>
+      <c r="D56" t="n">
+        <v>261.4029578017483</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>142</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5.611068825818452</v>
+      </c>
+      <c r="D57" t="n">
+        <v>266.3178106123411</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>143</v>
+      </c>
+      <c r="C58" t="n">
+        <v>19.462712598406</v>
+      </c>
+      <c r="D58" t="n">
+        <v>264.2110147452472</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>146</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12.56009387886268</v>
+      </c>
+      <c r="D59" t="n">
+        <v>272.0888013843039</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>147</v>
+      </c>
+      <c r="C60" t="n">
+        <v>18.61580252772221</v>
+      </c>
+      <c r="D60" t="n">
+        <v>274.8346712429371</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>153</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25.63413166597774</v>
+      </c>
+      <c r="D61" t="n">
+        <v>285.1044703297391</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>154</v>
+      </c>
+      <c r="C62" t="n">
+        <v>24.10291535891425</v>
+      </c>
+      <c r="D62" t="n">
+        <v>285.1428769699596</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>155</v>
+      </c>
+      <c r="C63" t="n">
+        <v>26.15445774146766</v>
+      </c>
+      <c r="D63" t="n">
+        <v>288.9064204156553</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>160</v>
+      </c>
+      <c r="C64" t="n">
+        <v>31.51452335486405</v>
+      </c>
+      <c r="D64" t="n">
+        <v>293.3888626660948</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>161</v>
+      </c>
+      <c r="C65" t="n">
+        <v>28.97100748780574</v>
+      </c>
+      <c r="D65" t="n">
+        <v>290.1690277030777</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>162</v>
+      </c>
+      <c r="C66" t="n">
+        <v>38.54276402235418</v>
+      </c>
+      <c r="D66" t="n">
+        <v>293.4041934023787</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>164</v>
+      </c>
+      <c r="C67" t="n">
+        <v>40.83724675422823</v>
+      </c>
+      <c r="D67" t="n">
+        <v>295.0317616795652</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>165</v>
+      </c>
+      <c r="C68" t="n">
+        <v>29.19154194450919</v>
+      </c>
+      <c r="D68" t="n">
+        <v>297.3489442462069</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>166</v>
+      </c>
+      <c r="C69" t="n">
+        <v>32.62367560475913</v>
+      </c>
+      <c r="D69" t="n">
+        <v>292.2728568999059</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>167</v>
+      </c>
+      <c r="C70" t="n">
+        <v>40.39930943829091</v>
+      </c>
+      <c r="D70" t="n">
+        <v>297.1018638577021</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>168</v>
+      </c>
+      <c r="C71" t="n">
+        <v>28.36172672892165</v>
+      </c>
+      <c r="D71" t="n">
+        <v>296.1096836276216</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>169</v>
+      </c>
+      <c r="C72" t="n">
+        <v>39.93747989606688</v>
+      </c>
+      <c r="D72" t="n">
+        <v>298.7302370188145</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>170</v>
+      </c>
+      <c r="C73" t="n">
+        <v>44.51232599757079</v>
+      </c>
+      <c r="D73" t="n">
+        <v>301.3165623926762</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>171</v>
+      </c>
+      <c r="C74" t="n">
+        <v>39.85373666743065</v>
+      </c>
+      <c r="D74" t="n">
+        <v>304.5956912629257</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>172</v>
+      </c>
+      <c r="C75" t="n">
+        <v>41.01412364045583</v>
+      </c>
+      <c r="D75" t="n">
+        <v>302.6392588065156</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSB6MZ2L_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB6MZ2L_po_data.xlsx
@@ -1197,7 +1197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,16 +1216,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1234,12 +1224,6 @@
       <c r="B2" t="n">
         <v>64</v>
       </c>
-      <c r="C2" t="n">
-        <v>-62.5817767187154</v>
-      </c>
-      <c r="D2" t="n">
-        <v>206.6564482053743</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1248,12 +1232,6 @@
       <c r="B3" t="n">
         <v>66</v>
       </c>
-      <c r="C3" t="n">
-        <v>-61.51296061054284</v>
-      </c>
-      <c r="D3" t="n">
-        <v>193.8596457573256</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1262,12 +1240,6 @@
       <c r="B4" t="n">
         <v>67</v>
       </c>
-      <c r="C4" t="n">
-        <v>-68.92147015509397</v>
-      </c>
-      <c r="D4" t="n">
-        <v>197.6974743370473</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1276,12 +1248,6 @@
       <c r="B5" t="n">
         <v>68</v>
       </c>
-      <c r="C5" t="n">
-        <v>-60.14984545463125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>192.089848385362</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1290,12 +1256,6 @@
       <c r="B6" t="n">
         <v>69</v>
       </c>
-      <c r="C6" t="n">
-        <v>-77.99123027054029</v>
-      </c>
-      <c r="D6" t="n">
-        <v>188.4604455468331</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1304,12 +1264,6 @@
       <c r="B7" t="n">
         <v>70</v>
       </c>
-      <c r="C7" t="n">
-        <v>-67.50259711274333</v>
-      </c>
-      <c r="D7" t="n">
-        <v>191.9130157968731</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1318,12 +1272,6 @@
       <c r="B8" t="n">
         <v>71</v>
       </c>
-      <c r="C8" t="n">
-        <v>-57.33786344199211</v>
-      </c>
-      <c r="D8" t="n">
-        <v>202.3923485696238</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1332,12 +1280,6 @@
       <c r="B9" t="n">
         <v>72</v>
       </c>
-      <c r="C9" t="n">
-        <v>-54.39284248652898</v>
-      </c>
-      <c r="D9" t="n">
-        <v>202.3910036591091</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1346,12 +1288,6 @@
       <c r="B10" t="n">
         <v>74</v>
       </c>
-      <c r="C10" t="n">
-        <v>-64.65652752323076</v>
-      </c>
-      <c r="D10" t="n">
-        <v>197.6638626324447</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1360,12 +1296,6 @@
       <c r="B11" t="n">
         <v>77</v>
       </c>
-      <c r="C11" t="n">
-        <v>-54.59105375392785</v>
-      </c>
-      <c r="D11" t="n">
-        <v>210.073934578274</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1374,12 +1304,6 @@
       <c r="B12" t="n">
         <v>83</v>
       </c>
-      <c r="C12" t="n">
-        <v>-40.32358154868776</v>
-      </c>
-      <c r="D12" t="n">
-        <v>215.5470470089504</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1388,12 +1312,6 @@
       <c r="B13" t="n">
         <v>84</v>
       </c>
-      <c r="C13" t="n">
-        <v>-52.24160808383002</v>
-      </c>
-      <c r="D13" t="n">
-        <v>208.9631609375414</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1402,12 +1320,6 @@
       <c r="B14" t="n">
         <v>85</v>
       </c>
-      <c r="C14" t="n">
-        <v>-48.96925758907283</v>
-      </c>
-      <c r="D14" t="n">
-        <v>213.729479888269</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1416,12 +1328,6 @@
       <c r="B15" t="n">
         <v>86</v>
       </c>
-      <c r="C15" t="n">
-        <v>-56.97617773807804</v>
-      </c>
-      <c r="D15" t="n">
-        <v>216.3396249962008</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1430,12 +1336,6 @@
       <c r="B16" t="n">
         <v>87</v>
       </c>
-      <c r="C16" t="n">
-        <v>-41.19952644774843</v>
-      </c>
-      <c r="D16" t="n">
-        <v>216.9264697787791</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1444,12 +1344,6 @@
       <c r="B17" t="n">
         <v>91</v>
       </c>
-      <c r="C17" t="n">
-        <v>-37.72308230005661</v>
-      </c>
-      <c r="D17" t="n">
-        <v>215.7441311545828</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1458,12 +1352,6 @@
       <c r="B18" t="n">
         <v>92</v>
       </c>
-      <c r="C18" t="n">
-        <v>-47.51318435767615</v>
-      </c>
-      <c r="D18" t="n">
-        <v>230.9679779078472</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1472,12 +1360,6 @@
       <c r="B19" t="n">
         <v>93</v>
       </c>
-      <c r="C19" t="n">
-        <v>-40.13887235000918</v>
-      </c>
-      <c r="D19" t="n">
-        <v>232.8451752806505</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1486,12 +1368,6 @@
       <c r="B20" t="n">
         <v>94</v>
       </c>
-      <c r="C20" t="n">
-        <v>-40.4039010060068</v>
-      </c>
-      <c r="D20" t="n">
-        <v>220.9533161616009</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1500,12 +1376,6 @@
       <c r="B21" t="n">
         <v>95</v>
       </c>
-      <c r="C21" t="n">
-        <v>-32.63243398782489</v>
-      </c>
-      <c r="D21" t="n">
-        <v>224.6264695598984</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1514,12 +1384,6 @@
       <c r="B22" t="n">
         <v>96</v>
       </c>
-      <c r="C22" t="n">
-        <v>-36.0707487031124</v>
-      </c>
-      <c r="D22" t="n">
-        <v>222.5690154624815</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1528,12 +1392,6 @@
       <c r="B23" t="n">
         <v>97</v>
       </c>
-      <c r="C23" t="n">
-        <v>-22.44346996032181</v>
-      </c>
-      <c r="D23" t="n">
-        <v>225.2607723715232</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1542,12 +1400,6 @@
       <c r="B24" t="n">
         <v>98</v>
       </c>
-      <c r="C24" t="n">
-        <v>-19.24924286980228</v>
-      </c>
-      <c r="D24" t="n">
-        <v>220.3669700017284</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1556,12 +1408,6 @@
       <c r="B25" t="n">
         <v>99</v>
       </c>
-      <c r="C25" t="n">
-        <v>-23.9713111144198</v>
-      </c>
-      <c r="D25" t="n">
-        <v>227.7050102010936</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1570,12 +1416,6 @@
       <c r="B26" t="n">
         <v>101</v>
       </c>
-      <c r="C26" t="n">
-        <v>-30.19750222649008</v>
-      </c>
-      <c r="D26" t="n">
-        <v>224.1340876276751</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1584,12 +1424,6 @@
       <c r="B27" t="n">
         <v>102</v>
       </c>
-      <c r="C27" t="n">
-        <v>-33.02058657327188</v>
-      </c>
-      <c r="D27" t="n">
-        <v>228.4342851569741</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1598,12 +1432,6 @@
       <c r="B28" t="n">
         <v>103</v>
       </c>
-      <c r="C28" t="n">
-        <v>-23.37756932229329</v>
-      </c>
-      <c r="D28" t="n">
-        <v>238.420362940408</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1612,12 +1440,6 @@
       <c r="B29" t="n">
         <v>104</v>
       </c>
-      <c r="C29" t="n">
-        <v>-26.65895609714185</v>
-      </c>
-      <c r="D29" t="n">
-        <v>226.8826269770099</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1626,12 +1448,6 @@
       <c r="B30" t="n">
         <v>105</v>
       </c>
-      <c r="C30" t="n">
-        <v>-21.75068446079355</v>
-      </c>
-      <c r="D30" t="n">
-        <v>244.2779173843764</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1640,12 +1456,6 @@
       <c r="B31" t="n">
         <v>108</v>
       </c>
-      <c r="C31" t="n">
-        <v>-24.69336863306893</v>
-      </c>
-      <c r="D31" t="n">
-        <v>239.4898994211561</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1654,12 +1464,6 @@
       <c r="B32" t="n">
         <v>109</v>
       </c>
-      <c r="C32" t="n">
-        <v>-26.40385448460479</v>
-      </c>
-      <c r="D32" t="n">
-        <v>234.3654733103801</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1668,12 +1472,6 @@
       <c r="B33" t="n">
         <v>110</v>
       </c>
-      <c r="C33" t="n">
-        <v>-21.33557879771219</v>
-      </c>
-      <c r="D33" t="n">
-        <v>236.0188142917754</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1682,12 +1480,6 @@
       <c r="B34" t="n">
         <v>111</v>
       </c>
-      <c r="C34" t="n">
-        <v>-19.14321081835924</v>
-      </c>
-      <c r="D34" t="n">
-        <v>253.4857303210721</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1696,12 +1488,6 @@
       <c r="B35" t="n">
         <v>112</v>
       </c>
-      <c r="C35" t="n">
-        <v>-15.81905233892271</v>
-      </c>
-      <c r="D35" t="n">
-        <v>251.4335631236878</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1710,12 +1496,6 @@
       <c r="B36" t="n">
         <v>117</v>
       </c>
-      <c r="C36" t="n">
-        <v>-18.34890084317227</v>
-      </c>
-      <c r="D36" t="n">
-        <v>246.6517600173265</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1724,12 +1504,6 @@
       <c r="B37" t="n">
         <v>118</v>
       </c>
-      <c r="C37" t="n">
-        <v>-3.616699857979824</v>
-      </c>
-      <c r="D37" t="n">
-        <v>242.5153703804851</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1738,12 +1512,6 @@
       <c r="B38" t="n">
         <v>119</v>
       </c>
-      <c r="C38" t="n">
-        <v>-15.80305276675174</v>
-      </c>
-      <c r="D38" t="n">
-        <v>253.8019887590873</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1752,12 +1520,6 @@
       <c r="B39" t="n">
         <v>120</v>
       </c>
-      <c r="C39" t="n">
-        <v>-13.4468107510624</v>
-      </c>
-      <c r="D39" t="n">
-        <v>259.0424712298944</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1766,12 +1528,6 @@
       <c r="B40" t="n">
         <v>121</v>
       </c>
-      <c r="C40" t="n">
-        <v>-14.65908228496219</v>
-      </c>
-      <c r="D40" t="n">
-        <v>253.1509140886062</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1780,12 +1536,6 @@
       <c r="B41" t="n">
         <v>122</v>
       </c>
-      <c r="C41" t="n">
-        <v>-17.20925053349944</v>
-      </c>
-      <c r="D41" t="n">
-        <v>250.6443547619062</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1794,12 +1544,6 @@
       <c r="B42" t="n">
         <v>124</v>
       </c>
-      <c r="C42" t="n">
-        <v>-14.90125631143898</v>
-      </c>
-      <c r="D42" t="n">
-        <v>251.1831797684817</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1808,12 +1552,6 @@
       <c r="B43" t="n">
         <v>125</v>
       </c>
-      <c r="C43" t="n">
-        <v>-3.443295766636244</v>
-      </c>
-      <c r="D43" t="n">
-        <v>258.2258794738868</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1822,12 +1560,6 @@
       <c r="B44" t="n">
         <v>127</v>
       </c>
-      <c r="C44" t="n">
-        <v>-3.707204883791736</v>
-      </c>
-      <c r="D44" t="n">
-        <v>260.2610301324789</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1836,12 +1568,6 @@
       <c r="B45" t="n">
         <v>128</v>
       </c>
-      <c r="C45" t="n">
-        <v>1.339416512816808</v>
-      </c>
-      <c r="D45" t="n">
-        <v>255.2739192339698</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1850,12 +1576,6 @@
       <c r="B46" t="n">
         <v>129</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.7527636106177328</v>
-      </c>
-      <c r="D46" t="n">
-        <v>259.1985820254783</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1864,12 +1584,6 @@
       <c r="B47" t="n">
         <v>130</v>
       </c>
-      <c r="C47" t="n">
-        <v>-7.57734573771845</v>
-      </c>
-      <c r="D47" t="n">
-        <v>251.4600586152889</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1878,12 +1592,6 @@
       <c r="B48" t="n">
         <v>131</v>
       </c>
-      <c r="C48" t="n">
-        <v>5.163476627552382</v>
-      </c>
-      <c r="D48" t="n">
-        <v>262.7333779632535</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1892,12 +1600,6 @@
       <c r="B49" t="n">
         <v>132</v>
       </c>
-      <c r="C49" t="n">
-        <v>16.97018830979288</v>
-      </c>
-      <c r="D49" t="n">
-        <v>264.617671982717</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1906,12 +1608,6 @@
       <c r="B50" t="n">
         <v>133</v>
       </c>
-      <c r="C50" t="n">
-        <v>-1.944800912658563</v>
-      </c>
-      <c r="D50" t="n">
-        <v>259.0597491265291</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1920,12 +1616,6 @@
       <c r="B51" t="n">
         <v>134</v>
       </c>
-      <c r="C51" t="n">
-        <v>6.09596938574371</v>
-      </c>
-      <c r="D51" t="n">
-        <v>258.7392067987943</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1934,12 +1624,6 @@
       <c r="B52" t="n">
         <v>135</v>
       </c>
-      <c r="C52" t="n">
-        <v>-0.2229395088558367</v>
-      </c>
-      <c r="D52" t="n">
-        <v>258.6068289497743</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1948,12 +1632,6 @@
       <c r="B53" t="n">
         <v>136</v>
       </c>
-      <c r="C53" t="n">
-        <v>-1.875506355958767</v>
-      </c>
-      <c r="D53" t="n">
-        <v>274.7631302700093</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1962,12 +1640,6 @@
       <c r="B54" t="n">
         <v>137</v>
       </c>
-      <c r="C54" t="n">
-        <v>10.96970428460158</v>
-      </c>
-      <c r="D54" t="n">
-        <v>281.5953167231898</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1976,12 +1648,6 @@
       <c r="B55" t="n">
         <v>139</v>
       </c>
-      <c r="C55" t="n">
-        <v>8.21558082468027</v>
-      </c>
-      <c r="D55" t="n">
-        <v>275.2117814632168</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1990,12 +1656,6 @@
       <c r="B56" t="n">
         <v>140</v>
       </c>
-      <c r="C56" t="n">
-        <v>6.330062896631408</v>
-      </c>
-      <c r="D56" t="n">
-        <v>261.4029578017483</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2004,12 +1664,6 @@
       <c r="B57" t="n">
         <v>142</v>
       </c>
-      <c r="C57" t="n">
-        <v>5.611068825818452</v>
-      </c>
-      <c r="D57" t="n">
-        <v>266.3178106123411</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2018,12 +1672,6 @@
       <c r="B58" t="n">
         <v>143</v>
       </c>
-      <c r="C58" t="n">
-        <v>19.462712598406</v>
-      </c>
-      <c r="D58" t="n">
-        <v>264.2110147452472</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2032,12 +1680,6 @@
       <c r="B59" t="n">
         <v>146</v>
       </c>
-      <c r="C59" t="n">
-        <v>12.56009387886268</v>
-      </c>
-      <c r="D59" t="n">
-        <v>272.0888013843039</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2046,12 +1688,6 @@
       <c r="B60" t="n">
         <v>147</v>
       </c>
-      <c r="C60" t="n">
-        <v>18.61580252772221</v>
-      </c>
-      <c r="D60" t="n">
-        <v>274.8346712429371</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2060,12 +1696,6 @@
       <c r="B61" t="n">
         <v>153</v>
       </c>
-      <c r="C61" t="n">
-        <v>25.63413166597774</v>
-      </c>
-      <c r="D61" t="n">
-        <v>285.1044703297391</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2074,12 +1704,6 @@
       <c r="B62" t="n">
         <v>154</v>
       </c>
-      <c r="C62" t="n">
-        <v>24.10291535891425</v>
-      </c>
-      <c r="D62" t="n">
-        <v>285.1428769699596</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2088,12 +1712,6 @@
       <c r="B63" t="n">
         <v>155</v>
       </c>
-      <c r="C63" t="n">
-        <v>26.15445774146766</v>
-      </c>
-      <c r="D63" t="n">
-        <v>288.9064204156553</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2102,12 +1720,6 @@
       <c r="B64" t="n">
         <v>160</v>
       </c>
-      <c r="C64" t="n">
-        <v>31.51452335486405</v>
-      </c>
-      <c r="D64" t="n">
-        <v>293.3888626660948</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2116,12 +1728,6 @@
       <c r="B65" t="n">
         <v>161</v>
       </c>
-      <c r="C65" t="n">
-        <v>28.97100748780574</v>
-      </c>
-      <c r="D65" t="n">
-        <v>290.1690277030777</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2130,12 +1736,6 @@
       <c r="B66" t="n">
         <v>162</v>
       </c>
-      <c r="C66" t="n">
-        <v>38.54276402235418</v>
-      </c>
-      <c r="D66" t="n">
-        <v>293.4041934023787</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2144,12 +1744,6 @@
       <c r="B67" t="n">
         <v>164</v>
       </c>
-      <c r="C67" t="n">
-        <v>40.83724675422823</v>
-      </c>
-      <c r="D67" t="n">
-        <v>295.0317616795652</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2158,12 +1752,6 @@
       <c r="B68" t="n">
         <v>165</v>
       </c>
-      <c r="C68" t="n">
-        <v>29.19154194450919</v>
-      </c>
-      <c r="D68" t="n">
-        <v>297.3489442462069</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2172,12 +1760,6 @@
       <c r="B69" t="n">
         <v>166</v>
       </c>
-      <c r="C69" t="n">
-        <v>32.62367560475913</v>
-      </c>
-      <c r="D69" t="n">
-        <v>292.2728568999059</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2186,12 +1768,6 @@
       <c r="B70" t="n">
         <v>167</v>
       </c>
-      <c r="C70" t="n">
-        <v>40.39930943829091</v>
-      </c>
-      <c r="D70" t="n">
-        <v>297.1018638577021</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2200,12 +1776,6 @@
       <c r="B71" t="n">
         <v>168</v>
       </c>
-      <c r="C71" t="n">
-        <v>28.36172672892165</v>
-      </c>
-      <c r="D71" t="n">
-        <v>296.1096836276216</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2214,12 +1784,6 @@
       <c r="B72" t="n">
         <v>169</v>
       </c>
-      <c r="C72" t="n">
-        <v>39.93747989606688</v>
-      </c>
-      <c r="D72" t="n">
-        <v>298.7302370188145</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2228,12 +1792,6 @@
       <c r="B73" t="n">
         <v>170</v>
       </c>
-      <c r="C73" t="n">
-        <v>44.51232599757079</v>
-      </c>
-      <c r="D73" t="n">
-        <v>301.3165623926762</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2242,12 +1800,6 @@
       <c r="B74" t="n">
         <v>171</v>
       </c>
-      <c r="C74" t="n">
-        <v>39.85373666743065</v>
-      </c>
-      <c r="D74" t="n">
-        <v>304.5956912629257</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2255,12 +1807,6 @@
       </c>
       <c r="B75" t="n">
         <v>172</v>
-      </c>
-      <c r="C75" t="n">
-        <v>41.01412364045583</v>
-      </c>
-      <c r="D75" t="n">
-        <v>302.6392588065156</v>
       </c>
     </row>
   </sheetData>
